--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T15:41:40-03:00</t>
+    <t>2024-01-08T08:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T08:41:20-03:00</t>
+    <t>2024-02-15T09:17:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T09:17:26-03:00</t>
+    <t>2024-02-15T14:15:38-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.6</t>
+    <t>1.8.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T14:15:38-03:00</t>
+    <t>2024-02-19T16:06:45-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-05-08T11:32:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -688,42 +688,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.87109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.0546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.96875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.02734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.86328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.27734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:32:37-04:00</t>
+    <t>2024-05-08T11:46:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-19T16:06:45-03:00</t>
+    <t>2024-03-04T15:29:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-13T17:23:26-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,31 +334,32 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCoding</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
   </si>
   <si>
     <t>extensible</t>
@@ -698,7 +699,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1333,7 +1334,7 @@
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>103</v>
@@ -1348,7 +1349,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>102</v>
@@ -1356,13 +1357,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1384,7 +1385,7 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>105</v>
@@ -1451,7 +1452,7 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>102</v>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.8.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-08T11:46:20-04:00</t>
+    <t>2024-06-17T14:21:27-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -334,31 +334,32 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCoding</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCoding</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
   </si>
   <si>
     <t>extensible</t>
@@ -698,7 +699,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1333,7 +1334,7 @@
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>103</v>
@@ -1348,7 +1349,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>102</v>
@@ -1356,13 +1357,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>103</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>77</v>
@@ -1384,7 +1385,7 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>105</v>
@@ -1451,7 +1452,7 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>102</v>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.11</t>
+    <t>1.8.12</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:21:27-04:00</t>
+    <t>2024-06-21T18:30:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
+++ b/output/StructureDefinition-VSEspecialidadesDeisCL.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:30:18-04:00</t>
+    <t>2024-06-23T21:41:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
